--- a/purchase_request_site/excel_templates/purchase_request_template.xlsx
+++ b/purchase_request_site/excel_templates/purchase_request_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajpa\Purchase_Request_Site\purchase_request_site\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B0052-E843-4EB4-8E4B-AF66375E970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF72F7-9F09-4864-91F0-32A7D8CA8DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Receipt1" sheetId="1" r:id="rId1"/>
@@ -120,8 +120,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -375,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,12 +426,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,6 +470,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -493,7 +491,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,17 +807,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,7 +855,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -898,9 +901,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,8 +934,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -944,19 +947,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,8 +969,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,8 +980,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,19 +991,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,8 +1013,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,19 +1024,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,8 +1046,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,91 +1057,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -1162,10 +1165,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1173,10 +1176,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1206,123 +1209,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1341,18 +1344,18 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1390,7 +1393,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -1436,9 +1439,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,8 +1472,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1482,19 +1485,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,8 +1507,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,8 +1518,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,19 +1529,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,8 +1551,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,19 +1562,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,8 +1584,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,91 +1595,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -1700,10 +1703,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1711,10 +1714,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1744,123 +1747,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1880,17 +1883,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1928,7 +1931,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -1974,9 +1977,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,8 +2010,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2020,19 +2023,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,8 +2045,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,8 +2056,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,19 +2067,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,8 +2089,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,19 +2100,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,8 +2122,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,91 +2133,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -2238,10 +2241,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2249,10 +2252,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2282,123 +2285,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2418,17 +2421,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2466,7 +2469,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -2512,9 +2515,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,8 +2548,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2558,19 +2561,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,8 +2583,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2591,8 +2594,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2602,19 +2605,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,8 +2627,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2635,19 +2638,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2657,8 +2660,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2668,91 +2671,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -2776,10 +2779,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2787,10 +2790,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2820,123 +2823,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2956,17 +2959,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3004,7 +3007,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -3050,9 +3053,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,8 +3086,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3096,19 +3099,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,8 +3121,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3129,8 +3132,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,19 +3143,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3162,8 +3165,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3173,19 +3176,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,8 +3198,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3206,91 +3209,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -3314,10 +3317,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3325,10 +3328,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3358,123 +3361,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3493,18 +3496,18 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3542,7 +3545,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -3588,9 +3591,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3621,8 +3624,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3634,19 +3637,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,8 +3659,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,8 +3670,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3678,19 +3681,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3700,8 +3703,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,19 +3714,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,8 +3736,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,91 +3747,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -3852,10 +3855,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3863,10 +3866,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3896,123 +3899,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4032,17 +4035,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4080,7 +4083,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -4126,9 +4129,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4159,8 +4162,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -4172,19 +4175,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,8 +4197,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4205,8 +4208,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,19 +4219,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,8 +4241,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4249,19 +4252,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,8 +4274,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,91 +4285,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -4390,10 +4393,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -4401,10 +4404,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -4434,123 +4437,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4570,17 +4573,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4618,7 +4621,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -4664,9 +4667,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4697,8 +4700,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -4710,19 +4713,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,8 +4735,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,8 +4746,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,19 +4757,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4776,8 +4779,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,19 +4790,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4809,8 +4812,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4820,91 +4823,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -4928,10 +4931,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -4939,10 +4942,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -4972,123 +4975,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5108,17 +5111,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5156,7 +5159,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -5202,9 +5205,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,8 +5238,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -5248,19 +5251,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,8 +5273,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,8 +5284,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,19 +5295,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5314,8 +5317,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,19 +5328,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5347,8 +5350,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5358,91 +5361,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -5466,10 +5469,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -5477,10 +5480,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -5510,123 +5513,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5646,17 +5649,17 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5694,7 +5697,7 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -5740,9 +5743,9 @@
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5773,8 +5776,8 @@
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -5786,19 +5789,19 @@
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,8 +5811,8 @@
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,8 +5822,8 @@
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5830,19 +5833,19 @@
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,8 +5855,8 @@
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5863,19 +5866,19 @@
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5885,8 +5888,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,91 +5899,91 @@
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>SUM(F9:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="str">
         <f>IF(D1="CAD", "HST/GST", "Taxes")</f>
         <v>HST/GST</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>IF(D1="CAD", F24*0.13, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>F24+F25+F26</f>
         <v>0</v>
       </c>
@@ -6004,10 +6007,10 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6015,10 +6018,10 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6048,123 +6051,123 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="30"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="F55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="28"/>
+      <c r="F56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
